--- a/biology/Botanique/Henry_Fletcher_Hance/Henry_Fletcher_Hance.xlsx
+++ b/biology/Botanique/Henry_Fletcher_Hance/Henry_Fletcher_Hance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Henry Fletcher Hance est un artiste et un botaniste britannique, né le 4 août 1827 à Londres et mort le 22 juin 1886 à Xiamen (Chine).
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études à Londres et en Belgique. Il devient fonctionnaire à Hong Kong en 1844 et est transféré à Canton en 1854. Il est vice-consul de 1861 à 1878 à Whampoa, puis consul à Canton de 1878 à 1881 et en 1883, enfin consul à Xiamen en 1886. Il consacre son temps libre à l’étude de la flore locale. Il publie un supplément au livre de George Bentham (1800-1884), Flora Hongkongensis en 1873.
 </t>
